--- a/ARP3 and ARP5 conditioning and preference metafile.xlsx
+++ b/ARP3 and ARP5 conditioning and preference metafile.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338C5B3C-3130-4326-94D7-17A626EFF756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D59CEB-9443-457E-93DC-A6B9243F3A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42150" yWindow="1620" windowWidth="23520" windowHeight="12750" xr2:uid="{A629CBDD-AAE3-46DE-BE85-3235D4398D44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A629CBDD-AAE3-46DE-BE85-3235D4398D44}"/>
   </bookViews>
   <sheets>
     <sheet name="metafile" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="313">
   <si>
     <t>medfile</t>
   </si>
@@ -877,19 +879,121 @@
   </si>
   <si>
     <t>2021-06-11_08h12m_Subject ARP316.txt</t>
+  </si>
+  <si>
+    <t>['ARP301',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP302',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP303',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP307',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP308',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP309',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP313',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP314',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP505',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP506',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP509',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP510',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP513',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP514',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP501',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ARP502'</t>
+  </si>
+  <si>
+    <t>[838.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 496.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2171.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1498.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1975.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1416.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 171.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2445.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1360.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1194.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1065.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 538.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -912,9 +1016,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,12 +1338,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C030D-5125-4EE0-8919-6D4AB9CC3A59}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S127" sqref="S127"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4699,10 +4807,10 @@
         <v>102</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L108">
         <v>2741</v>
@@ -7862,4 +7970,8728 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FA9BEC-7C01-4297-9770-71482F5E1904}">
+  <dimension ref="A1:N199"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="N137" sqref="A78:N137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>20210610</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>313</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>20210609</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>838</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>20210609</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>496</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>20210610</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>398</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>20210610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>2357</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>20210609</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>2171</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>20210610</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>1740</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>20210609</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>1552</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>20210609</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>945</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>20210610</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <v>1874</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>20210610</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28">
+        <v>2321</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>20210609</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>2523</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>20210609</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>806</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>20210610</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31">
+        <v>1498</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>20210610</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>20210609</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>20210609</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34">
+        <v>501</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>20210610</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>1975</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>20210609</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>1089</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>20210610</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>2623</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>20210610</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>57</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>20210609</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39">
+        <v>1112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>20210609</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>1197</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>20210610</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41">
+        <v>1083</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>20210610</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>1416</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>20210609</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>1865</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>20210609</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>20210610</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>20210610</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>1299</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>20210609</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <v>1621</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>20210609</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>1386</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>20210610</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49">
+        <v>468</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <v>2051</v>
+      </c>
+      <c r="M50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51">
+        <v>3622</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>528</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>430</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>171</v>
+      </c>
+      <c r="M54" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>206</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>1963</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57">
+        <v>2445</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58">
+        <v>364</v>
+      </c>
+      <c r="M58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>989</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>430</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61">
+        <v>1044</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>2831</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63">
+        <v>1360</v>
+      </c>
+      <c r="M63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64">
+        <v>1194</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65">
+        <v>1096</v>
+      </c>
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66">
+        <v>1581</v>
+      </c>
+      <c r="M66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67">
+        <v>450</v>
+      </c>
+      <c r="M67" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>60</v>
+      </c>
+      <c r="M68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69">
+        <v>288</v>
+      </c>
+      <c r="M69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70">
+        <v>77</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71">
+        <v>1065</v>
+      </c>
+      <c r="M71" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72">
+        <v>538</v>
+      </c>
+      <c r="M72" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73">
+        <v>160</v>
+      </c>
+      <c r="M73" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <v>57</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75">
+        <v>301</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <v>1271</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77">
+        <v>2372</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78">
+        <v>1947</v>
+      </c>
+      <c r="M78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79">
+        <v>94</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80">
+        <v>413</v>
+      </c>
+      <c r="M80" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81">
+        <v>1706</v>
+      </c>
+      <c r="M81" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82">
+        <v>170</v>
+      </c>
+      <c r="M82" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83">
+        <v>65</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84">
+        <v>190</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85">
+        <v>731</v>
+      </c>
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86">
+        <v>409</v>
+      </c>
+      <c r="M86" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87">
+        <v>18</v>
+      </c>
+      <c r="M87" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88">
+        <v>11</v>
+      </c>
+      <c r="M88" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>102</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89">
+        <v>475</v>
+      </c>
+      <c r="M89" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90">
+        <v>12</v>
+      </c>
+      <c r="M90" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>102</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91">
+        <v>19</v>
+      </c>
+      <c r="M91" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92">
+        <v>1615</v>
+      </c>
+      <c r="M92" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93">
+        <v>1518</v>
+      </c>
+      <c r="M93" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94">
+        <v>739</v>
+      </c>
+      <c r="M94" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95">
+        <v>1468</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96">
+        <v>40</v>
+      </c>
+      <c r="M96" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="M98" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99">
+        <v>1721</v>
+      </c>
+      <c r="M99" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100">
+        <v>1164</v>
+      </c>
+      <c r="M100" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>102</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101">
+        <v>1325</v>
+      </c>
+      <c r="M101" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>102</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102">
+        <v>2005</v>
+      </c>
+      <c r="M102" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103">
+        <v>1209</v>
+      </c>
+      <c r="M103" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104">
+        <v>57</v>
+      </c>
+      <c r="M104" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105">
+        <v>554</v>
+      </c>
+      <c r="M105" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+      <c r="M106" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107">
+        <v>17</v>
+      </c>
+      <c r="M107" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s">
+        <v>102</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108">
+        <v>28</v>
+      </c>
+      <c r="M108" t="s">
+        <v>19</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" t="s">
+        <v>102</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>36</v>
+      </c>
+      <c r="L109">
+        <v>400</v>
+      </c>
+      <c r="M109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>102</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110">
+        <v>1190</v>
+      </c>
+      <c r="M110" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>102</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111">
+        <v>2741</v>
+      </c>
+      <c r="M111" t="s">
+        <v>19</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112">
+        <v>21</v>
+      </c>
+      <c r="M112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s">
+        <v>102</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>36</v>
+      </c>
+      <c r="L113">
+        <v>265</v>
+      </c>
+      <c r="M113" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s">
+        <v>102</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114">
+        <v>20</v>
+      </c>
+      <c r="M114" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115">
+        <v>1884</v>
+      </c>
+      <c r="M115" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
+        <v>102</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116">
+        <v>58</v>
+      </c>
+      <c r="M116" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" t="s">
+        <v>102</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117">
+        <v>8</v>
+      </c>
+      <c r="M117" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118">
+        <v>16</v>
+      </c>
+      <c r="M118" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119">
+        <v>41</v>
+      </c>
+      <c r="M119" t="s">
+        <v>19</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120">
+        <v>1960</v>
+      </c>
+      <c r="M120" t="s">
+        <v>19</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" t="s">
+        <v>102</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121">
+        <v>832</v>
+      </c>
+      <c r="M121" t="s">
+        <v>19</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" t="s">
+        <v>102</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122">
+        <v>54</v>
+      </c>
+      <c r="M122" t="s">
+        <v>19</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>102</v>
+      </c>
+      <c r="H123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123">
+        <v>88</v>
+      </c>
+      <c r="M123" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>102</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124">
+        <v>95</v>
+      </c>
+      <c r="M124" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>102</v>
+      </c>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" t="s">
+        <v>36</v>
+      </c>
+      <c r="L125">
+        <v>18</v>
+      </c>
+      <c r="M125" t="s">
+        <v>19</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" t="s">
+        <v>102</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126">
+        <v>5</v>
+      </c>
+      <c r="M126" t="s">
+        <v>19</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" t="s">
+        <v>102</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127">
+        <v>361</v>
+      </c>
+      <c r="M127" t="s">
+        <v>19</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128">
+        <v>1298</v>
+      </c>
+      <c r="M128" t="s">
+        <v>19</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" t="s">
+        <v>102</v>
+      </c>
+      <c r="H129" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129" t="s">
+        <v>36</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129" t="s">
+        <v>19</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>102</v>
+      </c>
+      <c r="G130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130">
+        <v>13</v>
+      </c>
+      <c r="M130" t="s">
+        <v>19</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>102</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131">
+        <v>154</v>
+      </c>
+      <c r="M131" t="s">
+        <v>19</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>102</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132">
+        <v>511</v>
+      </c>
+      <c r="M132" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>102</v>
+      </c>
+      <c r="H133" t="s">
+        <v>33</v>
+      </c>
+      <c r="J133" t="s">
+        <v>36</v>
+      </c>
+      <c r="L133">
+        <v>277</v>
+      </c>
+      <c r="M133" t="s">
+        <v>19</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134">
+        <v>44</v>
+      </c>
+      <c r="M134" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" t="s">
+        <v>102</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135">
+        <v>13</v>
+      </c>
+      <c r="M135" t="s">
+        <v>19</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136">
+        <v>621</v>
+      </c>
+      <c r="M136" t="s">
+        <v>19</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" t="s">
+        <v>102</v>
+      </c>
+      <c r="H137" t="s">
+        <v>33</v>
+      </c>
+      <c r="J137" t="s">
+        <v>36</v>
+      </c>
+      <c r="L137">
+        <v>85</v>
+      </c>
+      <c r="M137" t="s">
+        <v>19</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <v>20210611</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" t="s">
+        <v>210</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138">
+        <v>102</v>
+      </c>
+      <c r="L138">
+        <v>32</v>
+      </c>
+      <c r="M138" t="s">
+        <v>211</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>20210611</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>210</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s">
+        <v>36</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139">
+        <v>187</v>
+      </c>
+      <c r="L139">
+        <v>763</v>
+      </c>
+      <c r="M139" t="s">
+        <v>211</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140">
+        <v>20210611</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>36</v>
+      </c>
+      <c r="K140">
+        <v>398</v>
+      </c>
+      <c r="L140">
+        <v>1568</v>
+      </c>
+      <c r="M140" t="s">
+        <v>211</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>20210611</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
+        <v>210</v>
+      </c>
+      <c r="G141" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141">
+        <v>2559</v>
+      </c>
+      <c r="L141">
+        <v>780</v>
+      </c>
+      <c r="M141" t="s">
+        <v>211</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>271</v>
+      </c>
+      <c r="B142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142">
+        <v>20210611</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>210</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142">
+        <v>234</v>
+      </c>
+      <c r="L142">
+        <v>870</v>
+      </c>
+      <c r="M142" t="s">
+        <v>211</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143">
+        <v>20210611</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" t="s">
+        <v>210</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143">
+        <v>28</v>
+      </c>
+      <c r="L143">
+        <v>35</v>
+      </c>
+      <c r="M143" t="s">
+        <v>211</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>273</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>20210611</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="s">
+        <v>210</v>
+      </c>
+      <c r="G144" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s">
+        <v>36</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144">
+        <v>88</v>
+      </c>
+      <c r="L144">
+        <v>1548</v>
+      </c>
+      <c r="M144" t="s">
+        <v>211</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145">
+        <v>20210611</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
+        <v>210</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s">
+        <v>36</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145">
+        <v>330</v>
+      </c>
+      <c r="L145">
+        <v>2292</v>
+      </c>
+      <c r="M145" t="s">
+        <v>211</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146">
+        <v>20210611</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>210</v>
+      </c>
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146">
+        <v>139</v>
+      </c>
+      <c r="L146">
+        <v>214</v>
+      </c>
+      <c r="M146" t="s">
+        <v>211</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147">
+        <v>20210611</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" t="s">
+        <v>210</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" t="s">
+        <v>36</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147">
+        <v>827</v>
+      </c>
+      <c r="L147">
+        <v>905</v>
+      </c>
+      <c r="M147" t="s">
+        <v>211</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148">
+        <v>20210611</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>210</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="s">
+        <v>36</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148">
+        <v>1057</v>
+      </c>
+      <c r="L148">
+        <v>281</v>
+      </c>
+      <c r="M148" t="s">
+        <v>211</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149">
+        <v>20210611</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
+        <v>210</v>
+      </c>
+      <c r="G149" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
+        <v>36</v>
+      </c>
+      <c r="K149">
+        <v>12</v>
+      </c>
+      <c r="L149">
+        <v>93</v>
+      </c>
+      <c r="M149" t="s">
+        <v>211</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>20210611</v>
+      </c>
+      <c r="D150" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" t="s">
+        <v>210</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I150" t="s">
+        <v>36</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150">
+        <v>550</v>
+      </c>
+      <c r="L150">
+        <v>1350</v>
+      </c>
+      <c r="M150" t="s">
+        <v>211</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151">
+        <v>20210611</v>
+      </c>
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" t="s">
+        <v>210</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s">
+        <v>36</v>
+      </c>
+      <c r="K151">
+        <v>566</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151" t="s">
+        <v>211</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" t="s">
+        <v>210</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152">
+        <v>536</v>
+      </c>
+      <c r="L152">
+        <v>1096</v>
+      </c>
+      <c r="M152" t="s">
+        <v>211</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" t="s">
+        <v>213</v>
+      </c>
+      <c r="C153" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" t="s">
+        <v>210</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s">
+        <v>36</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153">
+        <v>566</v>
+      </c>
+      <c r="L153">
+        <v>1887</v>
+      </c>
+      <c r="M153" t="s">
+        <v>211</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>215</v>
+      </c>
+      <c r="D154" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>210</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154">
+        <v>61</v>
+      </c>
+      <c r="L154">
+        <v>2472</v>
+      </c>
+      <c r="M154" t="s">
+        <v>211</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155" t="s">
+        <v>75</v>
+      </c>
+      <c r="C155" t="s">
+        <v>217</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="s">
+        <v>210</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s">
+        <v>36</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155">
+        <v>1519</v>
+      </c>
+      <c r="L155">
+        <v>43</v>
+      </c>
+      <c r="M155" t="s">
+        <v>211</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" t="s">
+        <v>219</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>210</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" t="s">
+        <v>36</v>
+      </c>
+      <c r="J156" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156">
+        <v>611</v>
+      </c>
+      <c r="L156">
+        <v>11</v>
+      </c>
+      <c r="M156" t="s">
+        <v>211</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" t="s">
+        <v>219</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" t="s">
+        <v>210</v>
+      </c>
+      <c r="G157" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157">
+        <v>183</v>
+      </c>
+      <c r="L157">
+        <v>1965</v>
+      </c>
+      <c r="M157" t="s">
+        <v>211</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>221</v>
+      </c>
+      <c r="B158" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" t="s">
+        <v>219</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>210</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s">
+        <v>36</v>
+      </c>
+      <c r="J158" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158">
+        <v>57</v>
+      </c>
+      <c r="L158">
+        <v>1975</v>
+      </c>
+      <c r="M158" t="s">
+        <v>211</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="s">
+        <v>219</v>
+      </c>
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" t="s">
+        <v>210</v>
+      </c>
+      <c r="G159" t="s">
+        <v>33</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" t="s">
+        <v>36</v>
+      </c>
+      <c r="K159">
+        <v>267</v>
+      </c>
+      <c r="L159">
+        <v>1052</v>
+      </c>
+      <c r="M159" t="s">
+        <v>211</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>223</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>219</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" t="s">
+        <v>210</v>
+      </c>
+      <c r="G160" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160">
+        <v>921</v>
+      </c>
+      <c r="L160">
+        <v>87</v>
+      </c>
+      <c r="M160" t="s">
+        <v>211</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>224</v>
+      </c>
+      <c r="B161" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" t="s">
+        <v>217</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>210</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" t="s">
+        <v>36</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161">
+        <v>202</v>
+      </c>
+      <c r="L161">
+        <v>168</v>
+      </c>
+      <c r="M161" t="s">
+        <v>211</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>225</v>
+      </c>
+      <c r="B162" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" t="s">
+        <v>210</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>36</v>
+      </c>
+      <c r="K162">
+        <v>247</v>
+      </c>
+      <c r="L162">
+        <v>388</v>
+      </c>
+      <c r="M162" t="s">
+        <v>211</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" t="s">
+        <v>219</v>
+      </c>
+      <c r="D163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>210</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" t="s">
+        <v>36</v>
+      </c>
+      <c r="J163" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163">
+        <v>28</v>
+      </c>
+      <c r="L163">
+        <v>74</v>
+      </c>
+      <c r="M163" t="s">
+        <v>211</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>227</v>
+      </c>
+      <c r="B164" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" t="s">
+        <v>215</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" t="s">
+        <v>210</v>
+      </c>
+      <c r="G164" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164">
+        <v>495</v>
+      </c>
+      <c r="L164">
+        <v>1606</v>
+      </c>
+      <c r="M164" t="s">
+        <v>211</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" t="s">
+        <v>217</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" t="s">
+        <v>210</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" t="s">
+        <v>36</v>
+      </c>
+      <c r="J165" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165">
+        <v>433</v>
+      </c>
+      <c r="L165">
+        <v>79</v>
+      </c>
+      <c r="M165" t="s">
+        <v>211</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>210</v>
+      </c>
+      <c r="G166" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" t="s">
+        <v>36</v>
+      </c>
+      <c r="K166">
+        <v>1763</v>
+      </c>
+      <c r="L166">
+        <v>1898</v>
+      </c>
+      <c r="M166" t="s">
+        <v>211</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" t="s">
+        <v>209</v>
+      </c>
+      <c r="D167" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" t="s">
+        <v>210</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" t="s">
+        <v>36</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167">
+        <v>113</v>
+      </c>
+      <c r="L167">
+        <v>855</v>
+      </c>
+      <c r="M167" t="s">
+        <v>211</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" t="s">
+        <v>209</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" t="s">
+        <v>232</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>33</v>
+      </c>
+      <c r="I168" t="s">
+        <v>18</v>
+      </c>
+      <c r="J168" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168">
+        <v>1198</v>
+      </c>
+      <c r="L168">
+        <v>17</v>
+      </c>
+      <c r="M168" t="s">
+        <v>211</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>233</v>
+      </c>
+      <c r="B169" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>102</v>
+      </c>
+      <c r="F169" t="s">
+        <v>232</v>
+      </c>
+      <c r="G169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s">
+        <v>36</v>
+      </c>
+      <c r="J169" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169">
+        <v>455</v>
+      </c>
+      <c r="L169">
+        <v>1702</v>
+      </c>
+      <c r="M169" t="s">
+        <v>211</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" t="s">
+        <v>219</v>
+      </c>
+      <c r="D170" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" t="s">
+        <v>102</v>
+      </c>
+      <c r="F170" t="s">
+        <v>232</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" t="s">
+        <v>36</v>
+      </c>
+      <c r="K170">
+        <v>29</v>
+      </c>
+      <c r="L170">
+        <v>1271</v>
+      </c>
+      <c r="M170" t="s">
+        <v>211</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" t="s">
+        <v>108</v>
+      </c>
+      <c r="C171" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" t="s">
+        <v>102</v>
+      </c>
+      <c r="F171" t="s">
+        <v>232</v>
+      </c>
+      <c r="G171" t="s">
+        <v>33</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" t="s">
+        <v>36</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171">
+        <v>30</v>
+      </c>
+      <c r="L171">
+        <v>69</v>
+      </c>
+      <c r="M171" t="s">
+        <v>211</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>102</v>
+      </c>
+      <c r="F172" t="s">
+        <v>237</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>33</v>
+      </c>
+      <c r="I172" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s">
+        <v>36</v>
+      </c>
+      <c r="K172">
+        <v>276</v>
+      </c>
+      <c r="L172">
+        <v>25</v>
+      </c>
+      <c r="M172" t="s">
+        <v>211</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" t="s">
+        <v>219</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" t="s">
+        <v>102</v>
+      </c>
+      <c r="F173" t="s">
+        <v>237</v>
+      </c>
+      <c r="G173" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" t="s">
+        <v>36</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173">
+        <v>489</v>
+      </c>
+      <c r="L173">
+        <v>1000</v>
+      </c>
+      <c r="M173" t="s">
+        <v>211</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>239</v>
+      </c>
+      <c r="B174" t="s">
+        <v>114</v>
+      </c>
+      <c r="C174" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" t="s">
+        <v>102</v>
+      </c>
+      <c r="F174" t="s">
+        <v>237</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>33</v>
+      </c>
+      <c r="I174" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s">
+        <v>36</v>
+      </c>
+      <c r="K174">
+        <v>229</v>
+      </c>
+      <c r="L174">
+        <v>3308</v>
+      </c>
+      <c r="M174" t="s">
+        <v>211</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" t="s">
+        <v>219</v>
+      </c>
+      <c r="D175" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" t="s">
+        <v>102</v>
+      </c>
+      <c r="F175" t="s">
+        <v>237</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s">
+        <v>36</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175">
+        <v>3104</v>
+      </c>
+      <c r="L175">
+        <v>836</v>
+      </c>
+      <c r="M175" t="s">
+        <v>211</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>241</v>
+      </c>
+      <c r="B176" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" t="s">
+        <v>209</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" t="s">
+        <v>102</v>
+      </c>
+      <c r="F176" t="s">
+        <v>232</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>33</v>
+      </c>
+      <c r="I176" t="s">
+        <v>36</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176">
+        <v>431</v>
+      </c>
+      <c r="L176">
+        <v>2799</v>
+      </c>
+      <c r="M176" t="s">
+        <v>211</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>242</v>
+      </c>
+      <c r="B177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" t="s">
+        <v>102</v>
+      </c>
+      <c r="F177" t="s">
+        <v>237</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s">
+        <v>36</v>
+      </c>
+      <c r="K177">
+        <v>78</v>
+      </c>
+      <c r="L177">
+        <v>707</v>
+      </c>
+      <c r="M177" t="s">
+        <v>211</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>243</v>
+      </c>
+      <c r="B178" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" t="s">
+        <v>219</v>
+      </c>
+      <c r="D178" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" t="s">
+        <v>237</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>33</v>
+      </c>
+      <c r="I178" t="s">
+        <v>36</v>
+      </c>
+      <c r="J178" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178">
+        <v>38</v>
+      </c>
+      <c r="L178">
+        <v>42</v>
+      </c>
+      <c r="M178" t="s">
+        <v>211</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>244</v>
+      </c>
+      <c r="B179" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179" t="s">
+        <v>219</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" t="s">
+        <v>102</v>
+      </c>
+      <c r="F179" t="s">
+        <v>237</v>
+      </c>
+      <c r="G179" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s">
+        <v>36</v>
+      </c>
+      <c r="K179">
+        <v>2995</v>
+      </c>
+      <c r="L179">
+        <v>803</v>
+      </c>
+      <c r="M179" t="s">
+        <v>211</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>245</v>
+      </c>
+      <c r="B180" t="s">
+        <v>126</v>
+      </c>
+      <c r="C180" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>102</v>
+      </c>
+      <c r="F180" t="s">
+        <v>232</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>33</v>
+      </c>
+      <c r="I180" t="s">
+        <v>36</v>
+      </c>
+      <c r="J180" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180">
+        <v>1856</v>
+      </c>
+      <c r="L180">
+        <v>1813</v>
+      </c>
+      <c r="M180" t="s">
+        <v>211</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>246</v>
+      </c>
+      <c r="B181" t="s">
+        <v>128</v>
+      </c>
+      <c r="C181" t="s">
+        <v>217</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>102</v>
+      </c>
+      <c r="F181" t="s">
+        <v>232</v>
+      </c>
+      <c r="G181" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s">
+        <v>36</v>
+      </c>
+      <c r="K181">
+        <v>53</v>
+      </c>
+      <c r="L181">
+        <v>17</v>
+      </c>
+      <c r="M181" t="s">
+        <v>211</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" t="s">
+        <v>237</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" t="s">
+        <v>33</v>
+      </c>
+      <c r="I182" t="s">
+        <v>36</v>
+      </c>
+      <c r="J182" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182">
+        <v>438</v>
+      </c>
+      <c r="L182">
+        <v>664</v>
+      </c>
+      <c r="M182" t="s">
+        <v>211</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" t="s">
+        <v>132</v>
+      </c>
+      <c r="C183" t="s">
+        <v>219</v>
+      </c>
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" t="s">
+        <v>102</v>
+      </c>
+      <c r="F183" t="s">
+        <v>232</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" t="s">
+        <v>36</v>
+      </c>
+      <c r="K183">
+        <v>761</v>
+      </c>
+      <c r="L183">
+        <v>316</v>
+      </c>
+      <c r="M183" t="s">
+        <v>211</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" t="s">
+        <v>102</v>
+      </c>
+      <c r="F184" t="s">
+        <v>237</v>
+      </c>
+      <c r="G184" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" t="s">
+        <v>36</v>
+      </c>
+      <c r="K184">
+        <v>55</v>
+      </c>
+      <c r="L184">
+        <v>1408</v>
+      </c>
+      <c r="M184" t="s">
+        <v>211</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" t="s">
+        <v>209</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>102</v>
+      </c>
+      <c r="F185" t="s">
+        <v>237</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>33</v>
+      </c>
+      <c r="I185" t="s">
+        <v>36</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185">
+        <v>389</v>
+      </c>
+      <c r="L185">
+        <v>110</v>
+      </c>
+      <c r="M185" t="s">
+        <v>211</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>252</v>
+      </c>
+      <c r="B186" t="s">
+        <v>136</v>
+      </c>
+      <c r="C186" t="s">
+        <v>219</v>
+      </c>
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" t="s">
+        <v>102</v>
+      </c>
+      <c r="F186" t="s">
+        <v>237</v>
+      </c>
+      <c r="G186" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" t="s">
+        <v>36</v>
+      </c>
+      <c r="K186">
+        <v>38</v>
+      </c>
+      <c r="L186">
+        <v>595</v>
+      </c>
+      <c r="M186" t="s">
+        <v>211</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>253</v>
+      </c>
+      <c r="B187" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" t="s">
+        <v>217</v>
+      </c>
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" t="s">
+        <v>102</v>
+      </c>
+      <c r="F187" t="s">
+        <v>232</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" t="s">
+        <v>33</v>
+      </c>
+      <c r="I187" t="s">
+        <v>36</v>
+      </c>
+      <c r="J187" t="s">
+        <v>18</v>
+      </c>
+      <c r="K187">
+        <v>89</v>
+      </c>
+      <c r="L187">
+        <v>833</v>
+      </c>
+      <c r="M187" t="s">
+        <v>211</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>254</v>
+      </c>
+      <c r="B188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188" t="s">
+        <v>219</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>102</v>
+      </c>
+      <c r="F188" t="s">
+        <v>237</v>
+      </c>
+      <c r="G188" t="s">
+        <v>33</v>
+      </c>
+      <c r="H188" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188">
+        <v>97</v>
+      </c>
+      <c r="L188">
+        <v>1489</v>
+      </c>
+      <c r="M188" t="s">
+        <v>211</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>255</v>
+      </c>
+      <c r="B189" t="s">
+        <v>142</v>
+      </c>
+      <c r="C189" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" t="s">
+        <v>102</v>
+      </c>
+      <c r="F189" t="s">
+        <v>237</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>33</v>
+      </c>
+      <c r="I189" t="s">
+        <v>36</v>
+      </c>
+      <c r="J189" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189">
+        <v>17</v>
+      </c>
+      <c r="L189">
+        <v>79</v>
+      </c>
+      <c r="M189" t="s">
+        <v>211</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>256</v>
+      </c>
+      <c r="B190" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" t="s">
+        <v>217</v>
+      </c>
+      <c r="D190" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" t="s">
+        <v>102</v>
+      </c>
+      <c r="F190" t="s">
+        <v>232</v>
+      </c>
+      <c r="G190" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" t="s">
+        <v>36</v>
+      </c>
+      <c r="K190">
+        <v>1202</v>
+      </c>
+      <c r="L190">
+        <v>360</v>
+      </c>
+      <c r="M190" t="s">
+        <v>211</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>257</v>
+      </c>
+      <c r="B191" t="s">
+        <v>146</v>
+      </c>
+      <c r="C191" t="s">
+        <v>209</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" t="s">
+        <v>102</v>
+      </c>
+      <c r="F191" t="s">
+        <v>232</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>36</v>
+      </c>
+      <c r="J191" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191">
+        <v>1617</v>
+      </c>
+      <c r="L191">
+        <v>2260</v>
+      </c>
+      <c r="M191" t="s">
+        <v>211</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>258</v>
+      </c>
+      <c r="B192" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" t="s">
+        <v>219</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" t="s">
+        <v>102</v>
+      </c>
+      <c r="F192" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s">
+        <v>36</v>
+      </c>
+      <c r="J192" t="s">
+        <v>18</v>
+      </c>
+      <c r="K192">
+        <v>52</v>
+      </c>
+      <c r="L192">
+        <v>308</v>
+      </c>
+      <c r="M192" t="s">
+        <v>211</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>260</v>
+      </c>
+      <c r="B193" t="s">
+        <v>148</v>
+      </c>
+      <c r="C193" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" t="s">
+        <v>102</v>
+      </c>
+      <c r="F193" t="s">
+        <v>237</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" t="s">
+        <v>36</v>
+      </c>
+      <c r="K193">
+        <v>309</v>
+      </c>
+      <c r="L193">
+        <v>638</v>
+      </c>
+      <c r="M193" t="s">
+        <v>211</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>261</v>
+      </c>
+      <c r="B194" t="s">
+        <v>150</v>
+      </c>
+      <c r="C194" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" t="s">
+        <v>102</v>
+      </c>
+      <c r="F194" t="s">
+        <v>237</v>
+      </c>
+      <c r="G194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>36</v>
+      </c>
+      <c r="J194" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194">
+        <v>879</v>
+      </c>
+      <c r="L194">
+        <v>126</v>
+      </c>
+      <c r="M194" t="s">
+        <v>211</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>262</v>
+      </c>
+      <c r="B195" t="s">
+        <v>152</v>
+      </c>
+      <c r="C195" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" t="s">
+        <v>102</v>
+      </c>
+      <c r="F195" t="s">
+        <v>237</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" t="s">
+        <v>18</v>
+      </c>
+      <c r="J195" t="s">
+        <v>36</v>
+      </c>
+      <c r="K195">
+        <v>328</v>
+      </c>
+      <c r="L195">
+        <v>2147</v>
+      </c>
+      <c r="M195" t="s">
+        <v>211</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>263</v>
+      </c>
+      <c r="B196" t="s">
+        <v>154</v>
+      </c>
+      <c r="C196" t="s">
+        <v>215</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" t="s">
+        <v>102</v>
+      </c>
+      <c r="F196" t="s">
+        <v>232</v>
+      </c>
+      <c r="G196" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" t="s">
+        <v>36</v>
+      </c>
+      <c r="J196" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196">
+        <v>169</v>
+      </c>
+      <c r="L196">
+        <v>58</v>
+      </c>
+      <c r="M196" t="s">
+        <v>211</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>264</v>
+      </c>
+      <c r="B197" t="s">
+        <v>156</v>
+      </c>
+      <c r="C197" t="s">
+        <v>209</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" t="s">
+        <v>102</v>
+      </c>
+      <c r="F197" t="s">
+        <v>232</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" t="s">
+        <v>33</v>
+      </c>
+      <c r="I197" t="s">
+        <v>18</v>
+      </c>
+      <c r="J197" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197">
+        <v>273</v>
+      </c>
+      <c r="L197">
+        <v>288</v>
+      </c>
+      <c r="M197" t="s">
+        <v>211</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C198" t="s">
+        <v>217</v>
+      </c>
+      <c r="D198" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" t="s">
+        <v>232</v>
+      </c>
+      <c r="G198" t="s">
+        <v>33</v>
+      </c>
+      <c r="H198" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s">
+        <v>36</v>
+      </c>
+      <c r="J198" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198">
+        <v>35</v>
+      </c>
+      <c r="L198">
+        <v>9</v>
+      </c>
+      <c r="M198" t="s">
+        <v>211</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>266</v>
+      </c>
+      <c r="B199" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" t="s">
+        <v>219</v>
+      </c>
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" t="s">
+        <v>102</v>
+      </c>
+      <c r="F199" t="s">
+        <v>232</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" t="s">
+        <v>33</v>
+      </c>
+      <c r="I199" t="s">
+        <v>18</v>
+      </c>
+      <c r="J199" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199">
+        <v>1275</v>
+      </c>
+      <c r="L199">
+        <v>2477</v>
+      </c>
+      <c r="M199" t="s">
+        <v>211</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N202">
+    <sortCondition ref="M2:M202"/>
+    <sortCondition ref="B2:B202"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69898BC6-A874-4262-B809-DF04739D7728}">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="A17:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1">
+        <v>1947</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>413</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>1706</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>409</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>475</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>739</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>1468</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2005</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>1209</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16">
+        <v>554</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>1190</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>2741</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>58</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>95</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>154</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>511</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>170</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31">
+        <v>65</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32">
+        <v>190</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>731</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>1615</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>1518</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <v>1721</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>1164</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41">
+        <v>1325</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45">
+        <v>400</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47">
+        <v>265</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49">
+        <v>1884</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <v>1960</v>
+      </c>
+      <c r="M50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51">
+        <v>832</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>54</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>88</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>1298</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58">
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>621</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61">
+        <v>85</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N61">
+    <sortCondition ref="D1:D61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ARP3 and ARP5 conditioning and preference metafile.xlsx
+++ b/ARP3 and ARP5 conditioning and preference metafile.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D59CEB-9443-457E-93DC-A6B9243F3A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3430289-B09B-448E-869D-174758FCA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A629CBDD-AAE3-46DE-BE85-3235D4398D44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A629CBDD-AAE3-46DE-BE85-3235D4398D44}"/>
   </bookViews>
   <sheets>
     <sheet name="metafile" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -981,7 +982,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="###0"/>
+    <numFmt numFmtId="173" formatCode="###0.000"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,16 +1000,72 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Arial Bold"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="60"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="62"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1012,19 +1073,304 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet3" xfId="1" xr:uid="{6E7A77AE-071D-4E80-AF64-419AC61CA25B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,17 +1684,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C030D-5125-4EE0-8919-6D4AB9CC3A59}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1744,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1811,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1843,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1875,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1907,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1939,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1971,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2067,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2099,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2131,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2163,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2195,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2227,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2259,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2323,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2358,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2390,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2422,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2454,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2486,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2550,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2582,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2614,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2646,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2678,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2710,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2742,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2774,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2806,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2838,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2870,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2902,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2934,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2966,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2998,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3030,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -3062,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -3094,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -3126,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -3158,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -3190,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -3222,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -3254,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -3286,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -3318,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -3350,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -3382,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -3414,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -3446,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -3478,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -3510,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -3542,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -3574,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -3606,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -3638,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -3670,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -3702,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -3734,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -3766,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3798,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -3862,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -3894,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3926,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -3958,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -3990,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -4022,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -4054,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4086,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -4118,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -4150,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -4182,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -4214,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -4246,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -4278,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -4310,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -4342,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -4374,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -4406,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>180</v>
       </c>
@@ -4438,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -4470,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -4502,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -4534,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -4566,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>185</v>
       </c>
@@ -4598,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -4630,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -4662,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -4694,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>189</v>
       </c>
@@ -4726,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>190</v>
       </c>
@@ -4758,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>191</v>
       </c>
@@ -4790,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -4822,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -4854,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4886,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>195</v>
       </c>
@@ -4918,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -4950,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>197</v>
       </c>
@@ -4982,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>198</v>
       </c>
@@ -5014,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>199</v>
       </c>
@@ -5046,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -5078,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -5110,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -5142,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -5174,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>204</v>
       </c>
@@ -5206,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>205</v>
       </c>
@@ -5238,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>207</v>
       </c>
@@ -5282,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>212</v>
       </c>
@@ -5326,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>214</v>
       </c>
@@ -5370,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -5414,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>218</v>
       </c>
@@ -5458,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>220</v>
       </c>
@@ -5502,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>221</v>
       </c>
@@ -5546,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>222</v>
       </c>
@@ -5590,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>223</v>
       </c>
@@ -5634,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>224</v>
       </c>
@@ -5678,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>225</v>
       </c>
@@ -5722,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>226</v>
       </c>
@@ -5766,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>227</v>
       </c>
@@ -5810,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>228</v>
       </c>
@@ -5854,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -5898,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -5942,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>231</v>
       </c>
@@ -5986,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>233</v>
       </c>
@@ -6030,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>234</v>
       </c>
@@ -6074,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>235</v>
       </c>
@@ -6118,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>236</v>
       </c>
@@ -6162,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>238</v>
       </c>
@@ -6206,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>239</v>
       </c>
@@ -6250,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>240</v>
       </c>
@@ -6294,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>241</v>
       </c>
@@ -6338,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>242</v>
       </c>
@@ -6382,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>243</v>
       </c>
@@ -6426,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>244</v>
       </c>
@@ -6470,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -6514,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>246</v>
       </c>
@@ -6558,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>247</v>
       </c>
@@ -6602,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>248</v>
       </c>
@@ -6646,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>249</v>
       </c>
@@ -6690,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>250</v>
       </c>
@@ -6734,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>252</v>
       </c>
@@ -6778,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>253</v>
       </c>
@@ -6822,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>254</v>
       </c>
@@ -6866,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>255</v>
       </c>
@@ -6910,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>256</v>
       </c>
@@ -6954,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>257</v>
       </c>
@@ -6998,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>258</v>
       </c>
@@ -7042,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>260</v>
       </c>
@@ -7086,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>261</v>
       </c>
@@ -7130,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -7174,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -7218,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>264</v>
       </c>
@@ -7262,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -7306,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -7350,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>267</v>
       </c>
@@ -7394,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>268</v>
       </c>
@@ -7438,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>269</v>
       </c>
@@ -7482,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -7526,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -7570,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -7614,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>273</v>
       </c>
@@ -7658,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>274</v>
       </c>
@@ -7702,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>275</v>
       </c>
@@ -7746,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>276</v>
       </c>
@@ -7790,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>277</v>
       </c>
@@ -7834,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>278</v>
       </c>
@@ -7878,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>279</v>
       </c>
@@ -7922,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>280</v>
       </c>
@@ -7980,25 +8326,25 @@
       <selection activeCell="N137" sqref="A78:N137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8042,7 +8388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="M2" s="2" t="s">
         <v>282</v>
       </c>
@@ -8050,7 +8396,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="M3" s="2" t="s">
         <v>283</v>
       </c>
@@ -8058,7 +8404,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="M4" s="2" t="s">
         <v>284</v>
       </c>
@@ -8066,7 +8412,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="M5" s="2" t="s">
         <v>285</v>
       </c>
@@ -8074,7 +8420,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="M6" s="2" t="s">
         <v>286</v>
       </c>
@@ -8082,7 +8428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="M7" s="2" t="s">
         <v>287</v>
       </c>
@@ -8090,7 +8436,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="M8" s="2" t="s">
         <v>288</v>
       </c>
@@ -8098,7 +8444,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="M9" s="2" t="s">
         <v>295</v>
       </c>
@@ -8106,7 +8452,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="M10" s="2" t="s">
         <v>296</v>
       </c>
@@ -8114,7 +8460,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="M11" s="2" t="s">
         <v>289</v>
       </c>
@@ -8122,7 +8468,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="M12" s="2" t="s">
         <v>290</v>
       </c>
@@ -8130,7 +8476,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="M13" s="2" t="s">
         <v>291</v>
       </c>
@@ -8138,7 +8484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="M14" s="2" t="s">
         <v>292</v>
       </c>
@@ -8146,7 +8492,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="M15" s="2" t="s">
         <v>293</v>
       </c>
@@ -8154,7 +8500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="M16" s="2" t="s">
         <v>294</v>
       </c>
@@ -8162,7 +8508,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="M17" s="2" t="s">
         <v>281</v>
       </c>
@@ -8170,7 +8516,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -8202,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -8234,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8266,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -8298,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -8330,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8362,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -8394,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8426,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -8458,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -8490,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -8522,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -8554,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -8586,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -8618,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -8650,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -8682,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -8714,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -8746,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -8778,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -8810,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -8842,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -8874,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8909,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -8941,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -8973,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -9005,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -9037,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -9072,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -9104,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -9136,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -9168,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -9200,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -9232,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -9264,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -9296,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -9328,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -9360,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -9392,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -9424,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -9456,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -9488,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -9520,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -9552,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -9584,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -9616,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -9648,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9680,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -9712,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -9744,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -9776,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -9808,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -9840,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -9872,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -9904,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -9936,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -9968,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -10000,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -10032,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -10064,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -10096,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -10128,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -10160,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -10192,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -10224,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -10256,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -10288,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -10320,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -10352,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -10384,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -10416,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -10448,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -10480,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -10512,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -10544,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -10576,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -10608,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -10640,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -10672,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -10704,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -10736,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -10768,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -10800,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -10832,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -10864,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -10896,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -10928,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -10960,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -10992,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -11024,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -11056,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -11088,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -11120,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -11152,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -11184,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>135</v>
       </c>
@@ -11216,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -11248,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -11280,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -11312,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -11344,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>195</v>
       </c>
@@ -11376,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -11408,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -11440,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -11472,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>197</v>
       </c>
@@ -11504,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>198</v>
       </c>
@@ -11536,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -11568,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>199</v>
       </c>
@@ -11600,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -11632,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -11664,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>200</v>
       </c>
@@ -11696,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -11728,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>151</v>
       </c>
@@ -11760,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>153</v>
       </c>
@@ -11792,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -11824,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>203</v>
       </c>
@@ -11856,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -11888,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>157</v>
       </c>
@@ -11920,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -11952,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -11984,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -12016,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -12060,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>268</v>
       </c>
@@ -12104,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>269</v>
       </c>
@@ -12148,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -12192,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>271</v>
       </c>
@@ -12236,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -12280,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -12324,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>274</v>
       </c>
@@ -12368,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>275</v>
       </c>
@@ -12412,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>276</v>
       </c>
@@ -12456,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>277</v>
       </c>
@@ -12500,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>278</v>
       </c>
@@ -12544,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>279</v>
       </c>
@@ -12588,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>280</v>
       </c>
@@ -12632,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -12676,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -12720,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -12764,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>216</v>
       </c>
@@ -12808,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>218</v>
       </c>
@@ -12852,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>220</v>
       </c>
@@ -12896,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>221</v>
       </c>
@@ -12940,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>222</v>
       </c>
@@ -12984,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -13028,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>224</v>
       </c>
@@ -13072,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -13116,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>226</v>
       </c>
@@ -13160,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>227</v>
       </c>
@@ -13204,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>228</v>
       </c>
@@ -13248,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>229</v>
       </c>
@@ -13292,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>230</v>
       </c>
@@ -13336,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -13380,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>233</v>
       </c>
@@ -13424,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>234</v>
       </c>
@@ -13468,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>235</v>
       </c>
@@ -13512,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>236</v>
       </c>
@@ -13556,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>238</v>
       </c>
@@ -13600,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -13644,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>240</v>
       </c>
@@ -13688,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>241</v>
       </c>
@@ -13732,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>242</v>
       </c>
@@ -13776,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>243</v>
       </c>
@@ -13820,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>244</v>
       </c>
@@ -13864,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -13908,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>246</v>
       </c>
@@ -13952,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>247</v>
       </c>
@@ -13996,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>248</v>
       </c>
@@ -14040,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -14084,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
         <v>250</v>
       </c>
@@ -14128,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -14172,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -14216,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>254</v>
       </c>
@@ -14260,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -14304,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -14348,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -14392,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -14436,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
         <v>260</v>
       </c>
@@ -14480,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
         <v>261</v>
       </c>
@@ -14524,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
         <v>262</v>
       </c>
@@ -14568,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
         <v>263</v>
       </c>
@@ -14612,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
         <v>264</v>
       </c>
@@ -14656,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
         <v>265</v>
       </c>
@@ -14700,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
         <v>266</v>
       </c>
@@ -14762,12 +15108,12 @@
       <selection activeCell="K17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -14799,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -14831,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -14863,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -14895,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -14927,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -14959,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -14991,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -15023,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -15055,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -15087,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -15119,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -15151,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -15183,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -15215,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -15247,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -15279,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -15311,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -15343,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -15375,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -15407,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -15439,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -15471,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -15503,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -15535,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -15567,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -15599,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -15631,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -15663,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -15695,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -15727,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -15759,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -15791,7 +16137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -15823,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -15855,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -15887,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -15919,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -15951,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -15983,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -16015,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -16047,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -16079,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -16111,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -16143,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -16175,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -16207,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -16239,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -16271,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -16303,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -16335,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -16367,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>198</v>
       </c>
@@ -16399,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -16431,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -16463,7 +16809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -16495,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -16527,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -16559,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -16591,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -16623,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -16655,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>159</v>
       </c>
@@ -16694,4 +17040,477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E62FC7-44B2-4C10-B24E-65210D5CFB21}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="P18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="11:22">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="11:22">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="11:22">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="11:22">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="11:22">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="11:22">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="11:22">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="11:22">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="11:22">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="11:22">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="11:22">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="11:22">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29" spans="11:22">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="11:22">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="11:22">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="11:22">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P28:U28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P14:U14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>